--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2983.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2983.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.195084227460523</v>
+        <v>1.735499858856201</v>
       </c>
       <c r="B1">
-        <v>2.510903385298309</v>
+        <v>2.460647583007812</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.531919717788696</v>
       </c>
       <c r="D1">
-        <v>2.256186499807961</v>
+        <v>2.899296045303345</v>
       </c>
       <c r="E1">
-        <v>1.184860455613761</v>
+        <v>3.640483379364014</v>
       </c>
     </row>
   </sheetData>
